--- a/algstudent/s0/tables.xlsx
+++ b/algstudent/s0/tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo302165\Desktop\algorithmics-template\algstudent\s0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNIVERSIDAD\ALGORITMIA\LAB\algorithmics-template\algstudent\s0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A218526-E625-44B7-A492-02DBFF835191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="24">
   <si>
     <t>n</t>
   </si>
@@ -81,12 +82,27 @@
   </si>
   <si>
     <t>JavaA3(with op)</t>
+  </si>
+  <si>
+    <t>JavaA1</t>
+  </si>
+  <si>
+    <t>JavaA2</t>
+  </si>
+  <si>
+    <t>JavaA3</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i5-7500 CPU @ 3.40GHz   3.40 GHz</t>
+  </si>
+  <si>
+    <t>8,00 GB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -259,11 +275,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -272,20 +346,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,19 +666,21 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
+      <c r="H3" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -608,98 +692,90 @@
       <c r="G4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="12"/>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="12"/>
       <c r="N7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13" t="s">
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="12"/>
     </row>
     <row r="8" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="O8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="Q8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="R8" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -712,10 +788,9 @@
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
-        <v>1542</v>
+        <v>5018</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
       <c r="H9" s="2">
         <v>10000</v>
       </c>
@@ -724,7 +799,7 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>1542</v>
+        <v>358</v>
       </c>
       <c r="L9" s="4"/>
       <c r="N9" s="2">
@@ -735,7 +810,7 @@
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3">
-        <v>1542</v>
+        <v>163</v>
       </c>
       <c r="R9" s="4"/>
     </row>
@@ -748,10 +823,9 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3">
-        <v>6275</v>
+        <v>11893</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="9"/>
       <c r="H10" s="2">
         <v>20000</v>
       </c>
@@ -760,7 +834,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>6275</v>
+        <v>1559</v>
       </c>
       <c r="L10" s="4"/>
       <c r="N10" s="2">
@@ -771,7 +845,7 @@
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3">
-        <v>6275</v>
+        <v>606</v>
       </c>
       <c r="R10" s="4"/>
     </row>
@@ -784,10 +858,9 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>25289</v>
+        <v>43253</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="9"/>
       <c r="H11" s="2">
         <v>40000</v>
       </c>
@@ -796,7 +869,7 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3">
-        <v>25289</v>
+        <v>4431</v>
       </c>
       <c r="L11" s="4"/>
       <c r="N11" s="2">
@@ -807,7 +880,7 @@
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3">
-        <v>25289</v>
+        <v>2370</v>
       </c>
       <c r="R11" s="4"/>
     </row>
@@ -815,57 +888,52 @@
       <c r="B12" s="2">
         <v>80000</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="9"/>
       <c r="H12" s="2">
         <v>80000</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="10">
         <v>9533</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K12" s="10">
+        <v>15788</v>
+      </c>
+      <c r="L12" s="4"/>
       <c r="N12" s="2">
         <v>80000</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="10">
         <v>4930</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="Q12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q12" s="10">
+        <v>8313</v>
+      </c>
+      <c r="R12" s="4"/>
     </row>
     <row r="13" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>160000</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
@@ -874,41 +942,37 @@
       <c r="H13" s="2">
         <v>160000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="10">
         <v>36390</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K13" s="10">
+        <v>59346</v>
+      </c>
+      <c r="L13" s="4"/>
       <c r="N13" s="2">
         <v>160000</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="10">
         <v>18081</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="Q13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q13" s="10">
+        <v>29512</v>
+      </c>
+      <c r="R13" s="4"/>
     </row>
     <row r="14" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>320000</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4" t="s">
@@ -917,13 +981,13 @@
       <c r="H14" s="2">
         <v>320000</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="15" t="s">
+      <c r="K14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="4" t="s">
@@ -932,13 +996,13 @@
       <c r="N14" s="2">
         <v>320000</v>
       </c>
-      <c r="O14" s="15" t="s">
+      <c r="O14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R14" s="4" t="s">
@@ -949,13 +1013,13 @@
       <c r="B15" s="5">
         <v>640000</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -964,13 +1028,13 @@
       <c r="H15" s="5">
         <v>640000</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="K15" s="15" t="s">
+      <c r="K15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
@@ -979,13 +1043,13 @@
       <c r="N15" s="5">
         <v>640000</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="R15" s="7" t="s">
@@ -998,81 +1062,81 @@
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="12"/>
       <c r="H19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="12"/>
       <c r="N19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13" t="s">
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R19" s="14"/>
+      <c r="R19" s="12"/>
     </row>
     <row r="20" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="O20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="P20" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="R20" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1085,7 +1149,7 @@
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3">
-        <v>1542</v>
+        <v>115</v>
       </c>
       <c r="F21" s="4"/>
       <c r="H21" s="2">
@@ -1096,7 +1160,7 @@
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3">
-        <v>1542</v>
+        <v>16</v>
       </c>
       <c r="L21" s="4"/>
       <c r="N21" s="2">
@@ -1107,7 +1171,7 @@
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3">
-        <v>1542</v>
+        <v>17</v>
       </c>
       <c r="R21" s="4"/>
     </row>
@@ -1120,7 +1184,7 @@
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3">
-        <v>6275</v>
+        <v>501</v>
       </c>
       <c r="F22" s="4"/>
       <c r="H22" s="2">
@@ -1131,7 +1195,7 @@
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3">
-        <v>6275</v>
+        <v>49</v>
       </c>
       <c r="L22" s="4"/>
       <c r="N22" s="2">
@@ -1142,7 +1206,7 @@
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3">
-        <v>6275</v>
+        <v>32</v>
       </c>
       <c r="R22" s="4"/>
     </row>
@@ -1155,7 +1219,7 @@
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3">
-        <v>25289</v>
+        <v>1848</v>
       </c>
       <c r="F23" s="4"/>
       <c r="H23" s="2">
@@ -1166,7 +1230,7 @@
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3">
-        <v>25289</v>
+        <v>181</v>
       </c>
       <c r="L23" s="4"/>
       <c r="N23" s="2">
@@ -1177,7 +1241,7 @@
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3">
-        <v>25289</v>
+        <v>101</v>
       </c>
       <c r="R23" s="4"/>
     </row>
@@ -1185,93 +1249,81 @@
       <c r="B24" s="2">
         <v>80000</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="10">
         <v>4622</v>
       </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E24" s="10">
+        <v>7389</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="H24" s="2">
         <v>80000</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="10">
         <v>416</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K24" s="10">
+        <v>709</v>
+      </c>
+      <c r="L24" s="4"/>
       <c r="N24" s="2">
         <v>80000</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="10">
         <v>210</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q24" s="10">
+        <v>357</v>
+      </c>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>160000</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="10">
         <v>18423</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="E25" s="10">
+        <v>28217</v>
+      </c>
+      <c r="F25" s="4"/>
       <c r="H25" s="2">
         <v>160000</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="10">
         <v>1538</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="K25" s="10">
+        <v>2601</v>
+      </c>
+      <c r="L25" s="4"/>
       <c r="N25" s="2">
         <v>160000</v>
       </c>
-      <c r="O25" s="15">
+      <c r="O25" s="10">
         <v>783</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q25" s="10">
+        <v>1369</v>
+      </c>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>320000</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="4" t="s">
@@ -1280,43 +1332,37 @@
       <c r="H26" s="2">
         <v>320000</v>
       </c>
-      <c r="I26" s="15">
+      <c r="I26" s="10">
         <v>5987</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="10">
+        <v>9424</v>
+      </c>
+      <c r="L26" s="4"/>
       <c r="N26" s="2">
         <v>320000</v>
       </c>
-      <c r="O26" s="15">
+      <c r="O26" s="10">
         <v>2893</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q26" s="10">
+        <v>4864</v>
+      </c>
+      <c r="R26" s="4"/>
     </row>
     <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5">
         <v>640000</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -1325,115 +1371,109 @@
       <c r="H27" s="5">
         <v>640000</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="10">
         <v>22171</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="10">
+        <v>35626</v>
+      </c>
+      <c r="L27" s="7"/>
       <c r="N27" s="5">
         <v>640000</v>
       </c>
-      <c r="O27" s="15">
+      <c r="O27" s="10">
         <v>10928</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R27" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="Q27" s="10">
+        <v>17625</v>
+      </c>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="2:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="12"/>
       <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13" t="s">
+      <c r="J31" s="11"/>
+      <c r="K31" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="N31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O31" s="13" t="s">
+      <c r="L31" s="12"/>
+      <c r="N31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13" t="s">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R31" s="14"/>
+      <c r="R31" s="15"/>
     </row>
     <row r="32" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="H32" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="P32" s="12" t="s">
+      <c r="P32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" s="16" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1442,7 +1482,7 @@
         <v>10000</v>
       </c>
       <c r="C33" s="3">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3">
@@ -1453,31 +1493,31 @@
         <v>10000</v>
       </c>
       <c r="I33" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33" s="3">
         <v>1542</v>
       </c>
       <c r="L33" s="4"/>
-      <c r="N33" s="2">
+      <c r="N33" s="17">
         <v>10000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="17">
         <v>5</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3">
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17">
         <v>1542</v>
       </c>
-      <c r="R33" s="4"/>
+      <c r="R33" s="17"/>
     </row>
     <row r="34" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>20000</v>
       </c>
       <c r="C34" s="3">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3">
@@ -1488,31 +1528,31 @@
         <v>20000</v>
       </c>
       <c r="I34" s="3">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3">
         <v>6275</v>
       </c>
       <c r="L34" s="4"/>
-      <c r="N34" s="2">
+      <c r="N34" s="17">
         <v>20000</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="17">
         <v>17</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3">
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17">
         <v>6275</v>
       </c>
-      <c r="R34" s="4"/>
+      <c r="R34" s="17"/>
     </row>
     <row r="35" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>40000</v>
       </c>
       <c r="C35" s="3">
-        <v>118</v>
+        <v>1151</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3">
@@ -1523,34 +1563,34 @@
         <v>40000</v>
       </c>
       <c r="I35" s="3">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3">
         <v>25289</v>
       </c>
       <c r="L35" s="4"/>
-      <c r="N35" s="2">
+      <c r="N35" s="17">
         <v>40000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="17">
         <v>59</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17">
         <v>25289</v>
       </c>
-      <c r="R35" s="4"/>
+      <c r="R35" s="17"/>
     </row>
     <row r="36" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>80000</v>
       </c>
-      <c r="C36" s="15">
-        <v>416</v>
+      <c r="C36" s="10">
+        <v>4690</v>
       </c>
       <c r="D36" s="3"/>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F36" s="4" t="s">
@@ -1559,27 +1599,27 @@
       <c r="H36" s="2">
         <v>80000</v>
       </c>
-      <c r="I36" s="15">
-        <v>210</v>
+      <c r="I36" s="10">
+        <v>418</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="15" t="s">
+      <c r="K36" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="17">
         <v>80000</v>
       </c>
-      <c r="O36" s="15">
+      <c r="O36" s="18">
         <v>207</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R36" s="4" t="s">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R36" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1587,11 +1627,11 @@
       <c r="B37" s="2">
         <v>160000</v>
       </c>
-      <c r="C37" s="15">
-        <v>1538</v>
+      <c r="C37" s="10">
+        <v>18502</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1600,27 +1640,27 @@
       <c r="H37" s="2">
         <v>160000</v>
       </c>
-      <c r="I37" s="15">
-        <v>783</v>
+      <c r="I37" s="10">
+        <v>1540</v>
       </c>
       <c r="J37" s="3"/>
-      <c r="K37" s="15" t="s">
+      <c r="K37" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="17">
         <v>160000</v>
       </c>
-      <c r="O37" s="15">
+      <c r="O37" s="18">
         <v>769</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R37" s="4" t="s">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R37" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1628,11 +1668,13 @@
       <c r="B38" s="2">
         <v>320000</v>
       </c>
-      <c r="C38" s="15">
-        <v>5987</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="15" t="s">
+      <c r="C38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="4" t="s">
@@ -1641,31 +1683,27 @@
       <c r="H38" s="2">
         <v>320000</v>
       </c>
-      <c r="I38" s="15">
-        <v>2893</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="I38" s="10">
+        <v>5851</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="17">
         <v>320000</v>
       </c>
-      <c r="O38" s="15">
+      <c r="O38" s="18">
         <v>2984</v>
       </c>
-      <c r="P38" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R38" s="4" t="s">
+      <c r="P38" s="19"/>
+      <c r="Q38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R38" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1673,11 +1711,13 @@
       <c r="B39" s="5">
         <v>640000</v>
       </c>
-      <c r="C39" s="15">
-        <v>22171</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="15" t="s">
+      <c r="C39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
@@ -1686,42 +1726,41 @@
       <c r="H39" s="5">
         <v>640000</v>
       </c>
-      <c r="I39" s="15">
-        <v>10928</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="15" t="s">
+      <c r="I39" s="10">
+        <v>22175</v>
+      </c>
+      <c r="J39" s="6"/>
+      <c r="K39" s="10" t="s">
         <v>12</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="19">
         <v>640000</v>
       </c>
-      <c r="O39" s="15">
+      <c r="O39" s="20">
         <v>11065</v>
       </c>
-      <c r="P39" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="7" t="s">
+      <c r="P39" s="21"/>
+      <c r="Q39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="R39" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="Q31:R31"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:R7"/>
@@ -1729,14 +1768,11 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="O31:P31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
